--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44327</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>13250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44306</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44302</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44341</v>
+        <v>44386</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>13250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44386</v>
+        <v>44323</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44329</v>
+        <v>44323</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44329</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44322</v>
+        <v>44355</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44379</v>
+        <v>44355</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44379</v>
+        <v>44372</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44379</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44372</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44299</v>
+        <v>44344</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44362</v>
+        <v>44344</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44323</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44295</v>
+        <v>44299</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44321</v>
+        <v>44292</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N31" t="n">
         <v>14000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44298</v>
+        <v>44362</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44383</v>
+        <v>44362</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
         <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>13250</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N36" t="n">
         <v>14000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
         <v>14000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44365</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44330</v>
+        <v>44365</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
         <v>10000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1067</v>
+        <v>1133</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
         <v>11000</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44350</v>
+        <v>44321</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44350</v>
+        <v>44321</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O48" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="P48" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1133</v>
+        <v>900</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44292</v>
+        <v>44316</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44305</v>
+        <v>44341</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
         <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44305</v>
+        <v>44351</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44344</v>
+        <v>44379</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>883</v>
+        <v>1067</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44344</v>
+        <v>44379</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44316</v>
+        <v>44379</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44355</v>
+        <v>44302</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P63" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P65" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44376</v>
+        <v>44329</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
         <v>10000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44295</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44350</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44350</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44362</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44327</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44383</v>
+        <v>44379</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>13250</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44306</v>
+        <v>44329</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44386</v>
+        <v>44330</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1407,13 +1407,13 @@
         <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44355</v>
+        <v>44302</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44372</v>
+        <v>44348</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44313</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44372</v>
+        <v>44313</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44330</v>
+        <v>44298</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N22" t="n">
         <v>14000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44344</v>
+        <v>44355</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>13250</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44344</v>
+        <v>44355</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44320</v>
+        <v>44355</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44334</v>
+        <v>44299</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
         <v>14000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44334</v>
+        <v>44299</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44299</v>
+        <v>44320</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N29" t="n">
         <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N30" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44292</v>
+        <v>44334</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
         <v>14000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44362</v>
+        <v>44327</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44362</v>
+        <v>44321</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44362</v>
+        <v>44321</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44309</v>
+        <v>44383</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44309</v>
+        <v>44341</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>933</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44322</v>
+        <v>44309</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44365</v>
+        <v>44309</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O39" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P39" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
         <v>13000</v>
       </c>
       <c r="O40" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P40" t="n">
-        <v>13000</v>
+        <v>13250</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1133</v>
+        <v>1067</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
         <v>11000</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44321</v>
+        <v>44386</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44321</v>
+        <v>44369</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44348</v>
+        <v>44369</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44348</v>
+        <v>44369</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N48" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44316</v>
+        <v>44372</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44341</v>
+        <v>44372</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O55" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P55" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44369</v>
+        <v>44365</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44369</v>
+        <v>44365</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44379</v>
+        <v>44365</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44379</v>
+        <v>44306</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44379</v>
+        <v>44306</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5247,13 +5247,13 @@
         <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44302</v>
+        <v>44376</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44302</v>
+        <v>44376</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44313</v>
+        <v>44376</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44313</v>
+        <v>44292</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44329</v>
+        <v>44358</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P66" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44329</v>
+        <v>44358</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O68" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P68" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44376</v>
+        <v>44323</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44376</v>
+        <v>44323</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
         <v>10000</v>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S70" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>14000</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44348</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44362</v>
+        <v>44329</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44329</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44379</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44379</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44329</v>
+        <v>44383</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1247,13 +1247,13 @@
         <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44329</v>
+        <v>44302</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P13" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P15" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44348</v>
+        <v>44323</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44348</v>
+        <v>44341</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44348</v>
+        <v>44299</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44313</v>
+        <v>44299</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44298</v>
+        <v>44365</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44322</v>
+        <v>44365</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
         <v>13000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44379</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44299</v>
+        <v>44379</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44320</v>
+        <v>44379</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44334</v>
+        <v>44295</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
         <v>14000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44334</v>
+        <v>44327</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44327</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44321</v>
+        <v>44355</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44321</v>
+        <v>44355</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44383</v>
+        <v>44330</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3247,13 +3247,13 @@
         <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44341</v>
+        <v>44330</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44344</v>
+        <v>44316</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N44" t="n">
         <v>11000</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44386</v>
+        <v>44344</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
         <v>13000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44369</v>
+        <v>44344</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44369</v>
+        <v>44358</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44369</v>
+        <v>44358</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44316</v>
+        <v>44320</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4767,13 +4767,13 @@
         <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44351</v>
+        <v>44372</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5007,13 +5007,13 @@
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44306</v>
+        <v>44334</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N60" t="n">
         <v>14000</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44306</v>
+        <v>44334</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44376</v>
+        <v>44386</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5487,13 +5487,13 @@
         <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44292</v>
+        <v>44369</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44358</v>
+        <v>44369</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44358</v>
+        <v>44369</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44358</v>
+        <v>44321</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N68" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44323</v>
+        <v>44321</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44323</v>
+        <v>44298</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44348</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44348</v>
+        <v>44321</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44348</v>
+        <v>44321</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44329</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44329</v>
+        <v>44348</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44348</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44299</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44383</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O11" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P11" t="n">
-        <v>13250</v>
+        <v>10500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>883</v>
+        <v>700</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44302</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44302</v>
+        <v>44365</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44365</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44309</v>
+        <v>44365</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1567,13 +1567,13 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
         <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44341</v>
+        <v>44355</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44299</v>
+        <v>44322</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
         <v>14000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44299</v>
+        <v>44344</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44365</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44365</v>
+        <v>44313</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2207,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44386</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44376</v>
+        <v>44327</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44376</v>
+        <v>44327</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
         <v>10000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44295</v>
+        <v>44358</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
         <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
         <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44355</v>
+        <v>44298</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N35" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44330</v>
+        <v>44305</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
         <v>14000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44330</v>
+        <v>44305</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44322</v>
+        <v>44334</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
         <v>14000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44316</v>
+        <v>44334</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44344</v>
+        <v>44341</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N46" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P46" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44358</v>
+        <v>44329</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44358</v>
+        <v>44329</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44320</v>
+        <v>44376</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44362</v>
+        <v>44316</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44362</v>
+        <v>44316</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
         <v>10000</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44372</v>
+        <v>44351</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44372</v>
+        <v>44351</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4767,13 +4767,13 @@
         <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44372</v>
+        <v>44351</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5007,13 +5007,13 @@
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5087,13 +5087,13 @@
         <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44334</v>
+        <v>44292</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N60" t="n">
         <v>14000</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44386</v>
+        <v>44323</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44369</v>
+        <v>44330</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44369</v>
+        <v>44330</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44369</v>
+        <v>44295</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44321</v>
+        <v>44383</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N68" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P68" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44321</v>
+        <v>44302</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44298</v>
+        <v>44302</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P70" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44351</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -607,13 +607,13 @@
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44321</v>
+        <v>44365</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44321</v>
+        <v>44365</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44348</v>
+        <v>44365</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>14000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44365</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44365</v>
+        <v>44379</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44365</v>
+        <v>44379</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44355</v>
+        <v>44379</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44322</v>
+        <v>44369</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44313</v>
+        <v>44383</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P22" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44386</v>
+        <v>44355</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
         <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P24" t="n">
-        <v>13250</v>
+        <v>13000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44327</v>
+        <v>44355</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P25" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>1133</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O28" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44379</v>
+        <v>44298</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44358</v>
+        <v>44386</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="P30" t="n">
-        <v>17000</v>
+        <v>13250</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1133</v>
+        <v>883</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44358</v>
+        <v>44320</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N31" t="n">
         <v>14000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44358</v>
+        <v>44302</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P33" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44309</v>
+        <v>44292</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
         <v>14000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44305</v>
+        <v>44321</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44334</v>
+        <v>44306</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P38" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44350</v>
+        <v>44323</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44350</v>
+        <v>44295</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44369</v>
+        <v>44299</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44341</v>
+        <v>44372</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44329</v>
+        <v>44376</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44329</v>
+        <v>44376</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44376</v>
+        <v>44362</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N50" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44376</v>
+        <v>44362</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44316</v>
+        <v>44362</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44316</v>
+        <v>44341</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
         <v>11000</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44372</v>
+        <v>44305</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P60" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44323</v>
+        <v>44348</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44323</v>
+        <v>44348</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44348</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N64" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
         <v>14000</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44383</v>
+        <v>44330</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N69" t="n">
         <v>14000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44334</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44334</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44365</v>
+        <v>44330</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44351</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44329</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44334</v>
+        <v>44329</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44334</v>
+        <v>44302</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44369</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44369</v>
+        <v>44365</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44369</v>
+        <v>44365</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44344</v>
+        <v>44365</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44344</v>
+        <v>44321</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O24" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P24" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
         <v>11000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44298</v>
+        <v>44323</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44386</v>
+        <v>44295</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44302</v>
+        <v>44362</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P32" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44302</v>
+        <v>44362</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44321</v>
+        <v>44376</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44321</v>
+        <v>44376</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
         <v>10000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
         <v>14000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
         <v>14000</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44295</v>
+        <v>44292</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44299</v>
+        <v>44379</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44299</v>
+        <v>44379</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44372</v>
+        <v>44379</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44372</v>
+        <v>44306</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44372</v>
+        <v>44306</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N48" t="n">
         <v>13000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44362</v>
+        <v>44386</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44362</v>
+        <v>44313</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44362</v>
+        <v>44313</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44341</v>
+        <v>44322</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N53" t="n">
         <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44350</v>
+        <v>44298</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44350</v>
+        <v>44383</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
         <v>13500</v>
       </c>
       <c r="P55" t="n">
-        <v>13500</v>
+        <v>13250</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44329</v>
+        <v>44299</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44305</v>
+        <v>44372</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44348</v>
+        <v>44372</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44348</v>
+        <v>44372</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P64" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44327</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>1133</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
         <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O70" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P70" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44330</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44330</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44351</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44351</v>
+        <v>44362</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -927,13 +927,13 @@
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44351</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44329</v>
+        <v>44372</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44329</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44302</v>
+        <v>44372</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44302</v>
+        <v>44295</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44320</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44341</v>
+        <v>44355</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44321</v>
+        <v>44351</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>1133</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44348</v>
+        <v>44320</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N25" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44309</v>
+        <v>44348</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44309</v>
+        <v>44348</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O27" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44323</v>
+        <v>44348</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P28" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44295</v>
+        <v>44309</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44376</v>
+        <v>44292</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44376</v>
+        <v>44299</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44327</v>
+        <v>44299</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44305</v>
+        <v>44327</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44292</v>
+        <v>44316</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44379</v>
+        <v>44330</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44379</v>
+        <v>44330</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44379</v>
+        <v>44323</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P47" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44355</v>
+        <v>44379</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44355</v>
+        <v>44379</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44386</v>
+        <v>44379</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44313</v>
+        <v>44341</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N51" t="n">
         <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44322</v>
+        <v>44386</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
         <v>14000</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O57" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P57" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P58" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44316</v>
+        <v>44298</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44372</v>
+        <v>44302</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P63" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
         <v>13500</v>
       </c>
       <c r="P64" t="n">
-        <v>13500</v>
+        <v>13250</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O66" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1133</v>
+        <v>1067</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5887,13 +5887,13 @@
         <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O70" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P70" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44334</v>
+        <v>44386</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44351</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -847,13 +847,13 @@
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44348</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>16000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44348</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P10" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44372</v>
+        <v>44348</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44295</v>
+        <v>44323</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44369</v>
+        <v>44323</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44369</v>
+        <v>44362</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44369</v>
+        <v>44362</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44351</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44351</v>
+        <v>44383</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
         <v>13500</v>
       </c>
       <c r="P20" t="n">
-        <v>13500</v>
+        <v>13250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1133</v>
+        <v>933</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44348</v>
+        <v>44365</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44348</v>
+        <v>44369</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44348</v>
+        <v>44369</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P28" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P30" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44383</v>
+        <v>44344</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O31" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44376</v>
+        <v>44321</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44376</v>
+        <v>44321</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44376</v>
+        <v>44302</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44292</v>
+        <v>44302</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44299</v>
+        <v>44309</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N36" t="n">
         <v>14000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44299</v>
+        <v>44309</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44327</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44327</v>
+        <v>44350</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44316</v>
+        <v>44372</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44330</v>
+        <v>44372</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44330</v>
+        <v>44372</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44323</v>
+        <v>44292</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N44" t="n">
         <v>14000</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S44" t="n">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44323</v>
+        <v>44299</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44306</v>
+        <v>44299</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>933</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44379</v>
+        <v>44306</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44379</v>
+        <v>44306</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44379</v>
+        <v>44295</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
         <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44386</v>
+        <v>44329</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4607,13 +4607,13 @@
         <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44321</v>
+        <v>44313</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44350</v>
+        <v>44334</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44350</v>
+        <v>44334</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5007,13 +5007,13 @@
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44298</v>
+        <v>44330</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
         <v>14000</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44329</v>
+        <v>44379</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5407,13 +5407,13 @@
         <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44344</v>
+        <v>44341</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P64" t="n">
-        <v>13250</v>
+        <v>14000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>883</v>
+        <v>933</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44344</v>
+        <v>44298</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44365</v>
+        <v>44305</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44365</v>
+        <v>44305</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
         <v>14000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44386</v>
+        <v>44365</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>883</v>
+        <v>1067</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44348</v>
+        <v>44341</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
         <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44362</v>
+        <v>44292</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44298</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44348</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44383</v>
+        <v>44348</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O20" t="n">
         <v>13500</v>
       </c>
       <c r="P20" t="n">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1133</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44358</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
         <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O23" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P23" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2367,13 +2367,13 @@
         <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44369</v>
+        <v>44350</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44369</v>
+        <v>44350</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2607,13 +2607,13 @@
         <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O28" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P28" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44369</v>
+        <v>44350</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2687,13 +2687,13 @@
         <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44344</v>
+        <v>44329</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44344</v>
+        <v>44329</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P32" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44302</v>
+        <v>44358</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44362</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44350</v>
+        <v>44362</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44350</v>
+        <v>44309</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44372</v>
+        <v>44309</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44320</v>
+        <v>44313</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44306</v>
+        <v>44322</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N48" t="n">
         <v>14000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P49" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44295</v>
+        <v>44344</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44316</v>
+        <v>44334</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44329</v>
+        <v>44334</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44313</v>
+        <v>44372</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44334</v>
+        <v>44372</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44334</v>
+        <v>44372</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
         <v>14000</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44330</v>
+        <v>44316</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
         <v>10000</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44379</v>
+        <v>44323</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44379</v>
+        <v>44323</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44379</v>
+        <v>44306</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44341</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O64" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P64" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
         <v>14000</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44305</v>
+        <v>44299</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P66" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44305</v>
+        <v>44321</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N67" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
         <v>14000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44327</v>
+        <v>44302</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44365</v>
+        <v>44321</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44365</v>
+        <v>44321</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44369</v>
+        <v>44344</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>10000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44341</v>
+        <v>44309</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
         <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44379</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44379</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44292</v>
+        <v>44379</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44320</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44383</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
         <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>13250</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44298</v>
+        <v>44376</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44348</v>
+        <v>44298</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44348</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44348</v>
+        <v>44306</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44383</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P22" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44305</v>
+        <v>44295</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2367,13 +2367,13 @@
         <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44350</v>
+        <v>44292</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44350</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44329</v>
+        <v>44305</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44329</v>
+        <v>44350</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="O32" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="P32" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1133</v>
+        <v>900</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44327</v>
+        <v>44323</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44362</v>
+        <v>44316</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44362</v>
+        <v>44386</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
         <v>13000</v>
       </c>
       <c r="O38" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P38" t="n">
-        <v>13000</v>
+        <v>13250</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44362</v>
+        <v>44322</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44309</v>
+        <v>44320</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N40" t="n">
         <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44309</v>
+        <v>44358</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="O41" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="P41" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>700</v>
+        <v>1133</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N42" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P42" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44376</v>
+        <v>44313</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44295</v>
+        <v>44313</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44386</v>
+        <v>44348</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O49" t="n">
         <v>13500</v>
       </c>
       <c r="P49" t="n">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O50" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
         <v>14000</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44316</v>
+        <v>44365</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44316</v>
+        <v>44365</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44323</v>
+        <v>44365</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44329</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44355</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N66" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O66" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P66" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44321</v>
+        <v>44330</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
         <v>14000</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44321</v>
+        <v>44330</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44302</v>
+        <v>44299</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44302</v>
+        <v>44299</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44309</v>
+        <v>44635</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>1139</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44379</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44298</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N20" t="n">
         <v>14000</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44383</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O22" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P22" t="n">
-        <v>13250</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>883</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44295</v>
+        <v>44383</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44369</v>
+        <v>44295</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44292</v>
+        <v>44369</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44341</v>
+        <v>44292</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
         <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>44341</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
         <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44350</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P33" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44386</v>
+        <v>44316</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44322</v>
+        <v>44386</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N40" t="n">
         <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44358</v>
+        <v>44320</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N41" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1133</v>
+        <v>933</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O42" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P42" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P50" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P53" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44329</v>
+        <v>44365</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5960,35 +5960,115 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>200</v>
+      </c>
+      <c r="N70" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O70" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P70" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
+        <v>967</v>
+      </c>
+      <c r="T70" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>4</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M71" t="n">
         <v>100</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N71" t="n">
         <v>10500</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O71" t="n">
         <v>10500</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P71" t="n">
         <v>10500</v>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S70" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
         <v>700</v>
       </c>
-      <c r="T70" t="n">
+      <c r="T71" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3247,13 +3247,13 @@
         <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
         <v>14000</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S37" t="n">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
         <v>10000</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S38" t="n">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44386</v>
+        <v>44316</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44320</v>
+        <v>44386</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>13250</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44358</v>
+        <v>44322</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N42" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44358</v>
+        <v>44320</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N43" t="n">
         <v>14000</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P44" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P50" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O53" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44329</v>
+        <v>44365</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44329</v>
+        <v>44365</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
         <v>10000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
         <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N70" t="n">
         <v>14000</v>
@@ -6007,68 +6007,228 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>60</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O71" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P71" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
+        <v>667</v>
+      </c>
+      <c r="T71" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
         <v>44299</v>
       </c>
-      <c r="E71" t="n">
-        <v>10</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>100104003</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Membrillo</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Champion</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>200</v>
+      </c>
+      <c r="N72" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O72" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P72" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
+        <v>967</v>
+      </c>
+      <c r="T72" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="M73" t="n">
         <v>100</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N73" t="n">
         <v>10500</v>
       </c>
-      <c r="O71" t="n">
+      <c r="O73" t="n">
         <v>10500</v>
       </c>
-      <c r="P71" t="n">
+      <c r="P73" t="n">
         <v>10500</v>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S71" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
         <v>700</v>
       </c>
-      <c r="T71" t="n">
+      <c r="T73" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44329</v>
+        <v>44642</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P65" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T65" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44329</v>
+        <v>44642</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
         <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
         <v>14000</v>
@@ -6167,68 +6167,228 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>60</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O73" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P73" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
+        <v>667</v>
+      </c>
+      <c r="T73" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
         <v>44299</v>
       </c>
-      <c r="E73" t="n">
-        <v>10</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>100104003</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Membrillo</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Champion</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>200</v>
+      </c>
+      <c r="N74" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O74" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P74" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
+        <v>967</v>
+      </c>
+      <c r="T74" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="M75" t="n">
         <v>100</v>
       </c>
-      <c r="N73" t="n">
+      <c r="N75" t="n">
         <v>10500</v>
       </c>
-      <c r="O73" t="n">
+      <c r="O75" t="n">
         <v>10500</v>
       </c>
-      <c r="P73" t="n">
+      <c r="P75" t="n">
         <v>10500</v>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S73" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
         <v>700</v>
       </c>
-      <c r="T73" t="n">
+      <c r="T75" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44327</v>
+        <v>44649</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44327</v>
+        <v>44649</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>861</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44635</v>
+        <v>44327</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1139</v>
+        <v>967</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44309</v>
+        <v>44327</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44635</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>1139</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44379</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44379</v>
+        <v>44309</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O15" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P15" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44298</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44376</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N22" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44383</v>
+        <v>44306</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44295</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P24" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44369</v>
+        <v>44383</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44369</v>
+        <v>44295</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44292</v>
+        <v>44369</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P28" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44341</v>
+        <v>44369</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
         <v>14000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44305</v>
+        <v>44341</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>933</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44638</v>
+        <v>44305</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44638</v>
+        <v>44305</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N35" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P37" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44323</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3407,13 +3407,13 @@
         <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
         <v>14000</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S39" t="n">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
         <v>10000</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S40" t="n">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44386</v>
+        <v>44316</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44320</v>
+        <v>44386</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>13250</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44358</v>
+        <v>44322</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N44" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44358</v>
+        <v>44320</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P46" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N47" t="n">
         <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O48" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44302</v>
+        <v>44313</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O52" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P52" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O55" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P55" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44642</v>
+        <v>44365</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1056</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44642</v>
+        <v>44365</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44329</v>
+        <v>44642</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,24 +5720,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44329</v>
+        <v>44642</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
         <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N74" t="n">
         <v>14000</v>
@@ -6327,68 +6327,228 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>60</v>
+      </c>
+      <c r="N75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>667</v>
+      </c>
+      <c r="T75" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>44299</v>
       </c>
-      <c r="E75" t="n">
-        <v>10</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>100104003</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Membrillo</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Champion</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>200</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O76" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P76" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>967</v>
+      </c>
+      <c r="T76" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="M77" t="n">
         <v>100</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N77" t="n">
         <v>10500</v>
       </c>
-      <c r="O75" t="n">
+      <c r="O77" t="n">
         <v>10500</v>
       </c>
-      <c r="P75" t="n">
+      <c r="P77" t="n">
         <v>10500</v>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S75" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
         <v>700</v>
       </c>
-      <c r="T75" t="n">
+      <c r="T77" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44321</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44321</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44344</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44344</v>
+        <v>44322</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44649</v>
+        <v>44351</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44649</v>
+        <v>44351</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P10" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44635</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P13" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1139</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P14" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O15" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44379</v>
+        <v>44295</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44327</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2047,13 +2047,13 @@
         <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
         <v>14000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44306</v>
+        <v>44321</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44383</v>
+        <v>44649</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P25" t="n">
-        <v>13250</v>
+        <v>19000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>883</v>
+        <v>1056</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44295</v>
+        <v>44649</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44369</v>
+        <v>44302</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44369</v>
+        <v>44302</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O28" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P28" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44369</v>
+        <v>44355</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44292</v>
+        <v>44355</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44341</v>
+        <v>44355</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44305</v>
+        <v>44369</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44305</v>
+        <v>44369</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44638</v>
+        <v>44369</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44638</v>
+        <v>44341</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44386</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44350</v>
+        <v>44316</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44316</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S39" t="n">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
         <v>10000</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3727,13 +3727,13 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44386</v>
+        <v>44642</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O43" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P43" t="n">
-        <v>13250</v>
+        <v>19000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>883</v>
+        <v>1056</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44322</v>
+        <v>44642</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
         <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O46" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P46" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44313</v>
+        <v>44298</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44348</v>
+        <v>44305</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44348</v>
+        <v>44305</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4767,13 +4767,13 @@
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O55" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P55" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O57" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P57" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44351</v>
+        <v>44323</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44334</v>
+        <v>44348</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44365</v>
+        <v>44334</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N64" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44365</v>
+        <v>44334</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44365</v>
+        <v>44635</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>1139</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N67" t="n">
         <v>19000</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N68" t="n">
         <v>15000</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44329</v>
+        <v>44358</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44329</v>
+        <v>44358</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>40</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44355</v>
+        <v>44376</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44330</v>
+        <v>44376</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44330</v>
+        <v>44372</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6552,6 +6552,246 @@
         <v>15</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>150</v>
+      </c>
+      <c r="N78" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O78" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P78" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>1056</v>
+      </c>
+      <c r="T78" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>150</v>
+      </c>
+      <c r="N79" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O79" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P79" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
+        <v>889</v>
+      </c>
+      <c r="T79" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>150</v>
+      </c>
+      <c r="N80" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O80" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P80" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
+        <v>833</v>
+      </c>
+      <c r="T80" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>13500</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>11000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44322</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44362</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44642</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44351</v>
+        <v>44642</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1067</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44351</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44351</v>
+        <v>44321</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44309</v>
+        <v>44321</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44638</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>1056</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44344</v>
+        <v>44638</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>13250</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P15" t="n">
-        <v>11000</v>
+        <v>13250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>733</v>
+        <v>883</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44295</v>
+        <v>44306</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>14000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P18" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44321</v>
+        <v>44379</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44292</v>
+        <v>44379</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P24" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44649</v>
+        <v>44379</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44649</v>
+        <v>44322</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O26" t="n">
         <v>15000</v>
       </c>
-      <c r="O26" t="n">
-        <v>16000</v>
-      </c>
       <c r="P26" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>861</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44302</v>
+        <v>44369</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44302</v>
+        <v>44369</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P28" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44355</v>
+        <v>44351</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44355</v>
+        <v>44351</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O31" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P31" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44369</v>
+        <v>44302</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44369</v>
+        <v>44302</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44341</v>
+        <v>44350</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44386</v>
+        <v>44350</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O36" t="n">
         <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P37" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44299</v>
+        <v>44656</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44299</v>
+        <v>44656</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N42" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44642</v>
+        <v>44329</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44642</v>
+        <v>44329</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44365</v>
+        <v>44323</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44365</v>
+        <v>44323</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44365</v>
+        <v>44298</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
         <v>14000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44298</v>
+        <v>44649</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44379</v>
+        <v>44649</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
         <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>861</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44379</v>
+        <v>44295</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44379</v>
+        <v>44292</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44305</v>
+        <v>44365</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44305</v>
+        <v>44365</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44313</v>
+        <v>44341</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N57" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>700</v>
+        <v>933</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44348</v>
+        <v>44362</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44348</v>
+        <v>44305</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44348</v>
+        <v>44305</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5327,13 +5327,13 @@
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O62" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P62" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44383</v>
+        <v>44355</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>13250</v>
+        <v>15000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44638</v>
+        <v>44372</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O67" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P67" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44638</v>
+        <v>44372</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,20 +5804,20 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44358</v>
+        <v>44372</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
         <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44376</v>
+        <v>44386</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P72" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44376</v>
+        <v>44309</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P73" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44376</v>
+        <v>44309</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6287,13 +6287,13 @@
         <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44372</v>
+        <v>44330</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N75" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44372</v>
+        <v>44330</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>60</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44372</v>
+        <v>44358</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>1133</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44656</v>
+        <v>44358</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N78" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P78" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1056</v>
+        <v>933</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44656</v>
+        <v>44358</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N79" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>889</v>
+        <v>733</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44656</v>
+        <v>44383</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P80" t="n">
-        <v>15000</v>
+        <v>13250</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>833</v>
+        <v>883</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44344</v>
+        <v>44659</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>13250</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44344</v>
+        <v>44659</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44306</v>
+        <v>44659</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44306</v>
+        <v>44344</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P18" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P19" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44379</v>
+        <v>44313</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
         <v>10000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44322</v>
+        <v>44379</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44369</v>
+        <v>44379</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44369</v>
+        <v>44379</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44369</v>
+        <v>44322</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2847,13 +2847,13 @@
         <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O31" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P31" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44351</v>
+        <v>44369</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O34" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P34" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44656</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1056</v>
+        <v>733</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P43" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44323</v>
+        <v>44656</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,36 +3960,36 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
         <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N48" t="n">
         <v>14000</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S48" t="n">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S49" t="n">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44649</v>
+        <v>44298</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N50" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44649</v>
+        <v>44334</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N51" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O51" t="n">
         <v>15000</v>
       </c>
-      <c r="O51" t="n">
-        <v>16000</v>
-      </c>
       <c r="P51" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>861</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44295</v>
+        <v>44334</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44365</v>
+        <v>44649</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
         <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1067</v>
+        <v>861</v>
       </c>
       <c r="T54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44365</v>
+        <v>44295</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44365</v>
+        <v>44292</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44362</v>
+        <v>44341</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P65" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44635</v>
+        <v>44355</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1139</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44372</v>
+        <v>44635</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>1139</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P70" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O71" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44386</v>
+        <v>44372</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44309</v>
+        <v>44299</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
         <v>14000</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44309</v>
+        <v>44299</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44330</v>
+        <v>44386</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6367,13 +6367,13 @@
         <v>120</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P75" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="O77" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P77" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1133</v>
+        <v>700</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
         <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,68 +6727,308 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>100</v>
+      </c>
+      <c r="N80" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O80" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P80" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
+        <v>1133</v>
+      </c>
+      <c r="T80" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>40</v>
+      </c>
+      <c r="N81" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O81" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P81" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
+        <v>933</v>
+      </c>
+      <c r="T81" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>40</v>
+      </c>
+      <c r="N82" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O82" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P82" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S82" t="n">
+        <v>733</v>
+      </c>
+      <c r="T82" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
         <v>44383</v>
       </c>
-      <c r="E80" t="n">
-        <v>10</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>100104003</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Membrillo</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Champion</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="M83" t="n">
         <v>120</v>
       </c>
-      <c r="N80" t="n">
+      <c r="N83" t="n">
         <v>13000</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O83" t="n">
         <v>13500</v>
       </c>
-      <c r="P80" t="n">
+      <c r="P83" t="n">
         <v>13250</v>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S80" t="n">
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
         <v>883</v>
       </c>
-      <c r="T80" t="n">
+      <c r="T83" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O35" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P40" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44656</v>
+        <v>44350</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O43" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1056</v>
+        <v>733</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44323</v>
+        <v>44656</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,36 +4200,36 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
         <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N51" t="n">
         <v>14000</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S51" t="n">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S52" t="n">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44649</v>
+        <v>44298</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N53" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44649</v>
+        <v>44334</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O54" t="n">
         <v>15000</v>
       </c>
-      <c r="O54" t="n">
-        <v>16000</v>
-      </c>
       <c r="P54" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>861</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44295</v>
+        <v>44334</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44365</v>
+        <v>44649</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O57" t="n">
         <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>861</v>
       </c>
       <c r="T57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44365</v>
+        <v>44295</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44365</v>
+        <v>44292</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44362</v>
+        <v>44341</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O68" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P68" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44635</v>
+        <v>44355</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1139</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44372</v>
+        <v>44635</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>667</v>
+        <v>1139</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O73" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44386</v>
+        <v>44372</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44309</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
         <v>14000</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44309</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44330</v>
+        <v>44386</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6607,13 +6607,13 @@
         <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P78" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="O80" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P80" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1133</v>
+        <v>700</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
         <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,68 +6967,308 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>100</v>
+      </c>
+      <c r="N83" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O83" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P83" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
+        <v>1133</v>
+      </c>
+      <c r="T83" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>40</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O84" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P84" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>933</v>
+      </c>
+      <c r="T84" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>40</v>
+      </c>
+      <c r="N85" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O85" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P85" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
+        <v>733</v>
+      </c>
+      <c r="T85" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
         <v>44383</v>
       </c>
-      <c r="E83" t="n">
-        <v>10</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>100104003</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Membrillo</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Champion</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="M86" t="n">
         <v>120</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N86" t="n">
         <v>13000</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O86" t="n">
         <v>13500</v>
       </c>
-      <c r="P83" t="n">
+      <c r="P86" t="n">
         <v>13250</v>
       </c>
-      <c r="Q83" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S83" t="n">
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
         <v>883</v>
       </c>
-      <c r="T83" t="n">
+      <c r="T86" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44642</v>
+        <v>44670</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44642</v>
+        <v>44670</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44642</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>933</v>
+        <v>1056</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44321</v>
+        <v>44642</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
         <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44638</v>
+        <v>44321</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44638</v>
+        <v>44321</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44659</v>
+        <v>44638</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44659</v>
+        <v>44638</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44344</v>
+        <v>44659</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,17 +1807,17 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44344</v>
+        <v>44659</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44344</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1967,13 +1967,13 @@
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P20" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44344</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
         <v>14000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44322</v>
+        <v>44379</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P29" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44369</v>
+        <v>44379</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44369</v>
+        <v>44322</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44665</v>
+        <v>44369</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44665</v>
+        <v>44369</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
         <v>16000</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1067</v>
+        <v>889</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O37" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O42" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P42" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P48" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44329</v>
+        <v>44656</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
         <v>10000</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44298</v>
+        <v>44323</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N53" t="n">
         <v>14000</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S53" t="n">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44334</v>
+        <v>44298</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44649</v>
+        <v>44334</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44649</v>
+        <v>44334</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,24 +4920,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44295</v>
+        <v>44649</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P58" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44365</v>
+        <v>44295</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44365</v>
+        <v>44292</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44362</v>
+        <v>44341</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
         <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44355</v>
+        <v>44305</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44635</v>
+        <v>44355</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1139</v>
+        <v>867</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N73" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44372</v>
+        <v>44635</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6284,20 +6284,20 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>1139</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44372</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44386</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44309</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P79" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44309</v>
+        <v>44386</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P80" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N81" t="n">
         <v>14000</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P82" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O85" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P85" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,68 +7207,228 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>40</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O86" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P86" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
+        <v>933</v>
+      </c>
+      <c r="T86" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>40</v>
+      </c>
+      <c r="N87" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O87" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P87" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
+        <v>733</v>
+      </c>
+      <c r="T87" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
         <v>44383</v>
       </c>
-      <c r="E86" t="n">
-        <v>10</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>100104003</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Membrillo</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Champion</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="M88" t="n">
         <v>120</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N88" t="n">
         <v>13000</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O88" t="n">
         <v>13500</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P88" t="n">
         <v>13250</v>
       </c>
-      <c r="Q86" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S86" t="n">
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
         <v>883</v>
       </c>
-      <c r="T86" t="n">
+      <c r="T88" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O3" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44362</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44670</v>
+        <v>44362</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44670</v>
+        <v>44362</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44642</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44642</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44321</v>
+        <v>44365</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44321</v>
+        <v>44365</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44638</v>
+        <v>44365</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44638</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
         <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44659</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44659</v>
+        <v>44372</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
         <v>16000</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>889</v>
+        <v>1067</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44659</v>
+        <v>44372</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
         <v>13000</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44344</v>
+        <v>44372</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44344</v>
+        <v>44321</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44321</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44313</v>
+        <v>44329</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
         <v>14000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44313</v>
+        <v>44329</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P26" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2527,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44379</v>
+        <v>44316</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44379</v>
+        <v>44316</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44379</v>
+        <v>44313</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44369</v>
+        <v>44635</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>867</v>
+        <v>1139</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44369</v>
+        <v>44295</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44665</v>
+        <v>44670</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
         <v>18000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44665</v>
+        <v>44670</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N36" t="n">
         <v>16000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44665</v>
+        <v>44642</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O37" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P37" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>722</v>
+        <v>1056</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44351</v>
+        <v>44642</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1067</v>
+        <v>833</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44302</v>
+        <v>44665</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44350</v>
+        <v>44386</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
         <v>13500</v>
       </c>
       <c r="P44" t="n">
-        <v>13500</v>
+        <v>13250</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N45" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44316</v>
+        <v>44638</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44316</v>
+        <v>44638</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44656</v>
+        <v>44309</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N48" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44656</v>
+        <v>44309</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44656</v>
+        <v>44292</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
         <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44329</v>
+        <v>44320</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N51" t="n">
         <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44323</v>
+        <v>44656</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,36 +4680,36 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44298</v>
+        <v>44656</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4764,20 +4764,20 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44334</v>
+        <v>44656</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O56" t="n">
         <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44334</v>
+        <v>44350</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44649</v>
+        <v>44350</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O58" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="P58" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1056</v>
+        <v>900</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44649</v>
+        <v>44350</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,24 +5080,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>15500</v>
+        <v>11000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>861</v>
+        <v>733</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44295</v>
+        <v>44351</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44292</v>
+        <v>44351</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44365</v>
+        <v>44649</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>1056</v>
       </c>
       <c r="T63" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44365</v>
+        <v>44649</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>861</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O65" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P66" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44305</v>
+        <v>44299</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N70" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44355</v>
+        <v>44323</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44355</v>
+        <v>44323</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44635</v>
+        <v>44358</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O74" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P74" t="n">
-        <v>20500</v>
+        <v>17000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="T74" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44372</v>
+        <v>44358</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P75" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44372</v>
+        <v>44358</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44372</v>
+        <v>44383</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44299</v>
+        <v>44376</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P78" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44299</v>
+        <v>44376</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O79" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44386</v>
+        <v>44376</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44309</v>
+        <v>44659</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P81" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44309</v>
+        <v>44659</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O82" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P82" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44330</v>
+        <v>44659</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44358</v>
+        <v>44306</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="O85" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P85" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1133</v>
+        <v>700</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44358</v>
+        <v>44369</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N86" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O86" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P86" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44358</v>
+        <v>44369</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44383</v>
+        <v>44369</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44635</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>967</v>
+        <v>1139</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44379</v>
+        <v>44350</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44362</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1067</v>
+        <v>900</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44362</v>
+        <v>44350</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
         <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P16" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44344</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P17" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44372</v>
+        <v>44344</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44372</v>
+        <v>44659</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44372</v>
+        <v>44659</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44321</v>
+        <v>44659</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44298</v>
+        <v>44348</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44329</v>
+        <v>44348</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44329</v>
+        <v>44386</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44344</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44344</v>
+        <v>44323</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2527,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44313</v>
+        <v>44376</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44313</v>
+        <v>44355</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44341</v>
+        <v>44355</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44635</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O33" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P33" t="n">
-        <v>20500</v>
+        <v>11000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1139</v>
+        <v>733</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44295</v>
+        <v>44670</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44670</v>
+        <v>44369</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
         <v>16000</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>889</v>
+        <v>1067</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44642</v>
+        <v>44369</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O37" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1056</v>
+        <v>867</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44642</v>
+        <v>44369</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,24 +3400,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44665</v>
+        <v>44292</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44665</v>
+        <v>44321</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44665</v>
+        <v>44321</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44330</v>
+        <v>44298</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N42" t="n">
         <v>14000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44330</v>
+        <v>44656</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44386</v>
+        <v>44656</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44322</v>
+        <v>44656</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O45" t="n">
         <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44638</v>
+        <v>44334</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44638</v>
+        <v>44334</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
         <v>14000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44292</v>
+        <v>44642</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44320</v>
+        <v>44642</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>933</v>
+        <v>833</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44327</v>
+        <v>44341</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
         <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44656</v>
+        <v>44306</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O54" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="P54" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1056</v>
+        <v>700</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>150</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>889</v>
+        <v>1056</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N56" t="n">
         <v>15000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="T56" t="n">
         <v>18</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N58" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="O58" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P58" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>900</v>
+        <v>1056</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,24 +5080,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N59" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44351</v>
+        <v>44302</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44351</v>
+        <v>44302</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O61" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P61" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44351</v>
+        <v>44379</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44649</v>
+        <v>44379</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1056</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44649</v>
+        <v>44379</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44348</v>
+        <v>44329</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44348</v>
+        <v>44329</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N66" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44299</v>
+        <v>44322</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N69" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44334</v>
+        <v>44665</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,24 +5960,24 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P70" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44334</v>
+        <v>44665</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T71" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44323</v>
+        <v>44665</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,36 +6120,36 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44323</v>
+        <v>44383</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N74" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N76" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O76" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P76" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44383</v>
+        <v>44351</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O77" t="n">
         <v>13500</v>
       </c>
       <c r="P77" t="n">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44376</v>
+        <v>44351</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N78" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44376</v>
+        <v>44365</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N79" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44376</v>
+        <v>44365</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44659</v>
+        <v>44365</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44659</v>
+        <v>44327</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44659</v>
+        <v>44327</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44306</v>
+        <v>44358</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P84" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44306</v>
+        <v>44358</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>700</v>
+        <v>933</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44369</v>
+        <v>44358</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44635</v>
+        <v>44309</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1139</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44309</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>900</v>
+        <v>1056</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44350</v>
+        <v>44638</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44295</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
         <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44309</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44372</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44372</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44372</v>
+        <v>44292</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44386</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P15" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O17" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P17" t="n">
-        <v>13250</v>
+        <v>10500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>883</v>
+        <v>700</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44659</v>
+        <v>44302</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44659</v>
+        <v>44670</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44659</v>
+        <v>44670</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2207,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O23" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P23" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44348</v>
+        <v>44379</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2287,13 +2287,13 @@
         <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44386</v>
+        <v>44659</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>13250</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>883</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44376</v>
+        <v>44649</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O28" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P28" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44376</v>
+        <v>44649</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44355</v>
+        <v>44665</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,24 +2920,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O32" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P32" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44665</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44670</v>
+        <v>44295</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44369</v>
+        <v>44642</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,20 +3244,20 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44369</v>
+        <v>44642</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3324,20 +3324,20 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44369</v>
+        <v>44329</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P40" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P41" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44298</v>
+        <v>44348</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P42" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44656</v>
+        <v>44350</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44656</v>
+        <v>44350</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T44" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44656</v>
+        <v>44350</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P45" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44334</v>
+        <v>44322</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N46" t="n">
         <v>14000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44334</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44313</v>
+        <v>44383</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P49" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44642</v>
+        <v>44321</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44642</v>
+        <v>44321</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44341</v>
+        <v>44362</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44306</v>
+        <v>44362</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44306</v>
+        <v>44362</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44649</v>
+        <v>44298</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N55" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44649</v>
+        <v>44341</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4844,20 +4844,20 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>861</v>
+        <v>933</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44320</v>
+        <v>44330</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
         <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44638</v>
+        <v>44330</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,24 +5000,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44638</v>
+        <v>44334</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
         <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44302</v>
+        <v>44334</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44302</v>
+        <v>44635</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N61" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="O61" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P61" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>700</v>
+        <v>1139</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5327,13 +5327,13 @@
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1067</v>
+        <v>1133</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
         <v>14000</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
         <v>10000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44316</v>
+        <v>44656</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,24 +5720,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44316</v>
+        <v>44656</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44322</v>
+        <v>44656</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
         <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44665</v>
+        <v>44372</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,20 +5964,20 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O70" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P70" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44665</v>
+        <v>44372</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44665</v>
+        <v>44372</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44383</v>
+        <v>44369</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O73" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>883</v>
+        <v>1067</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44330</v>
+        <v>44369</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44330</v>
+        <v>44369</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6527,13 +6527,13 @@
         <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O79" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P79" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>60</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P82" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N84" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O85" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P85" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7182,11 +7182,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O86" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P86" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7407,13 +7407,13 @@
         <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44309</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44309</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
         <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1056</v>
+        <v>733</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44638</v>
+        <v>44372</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44670</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44670</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44344</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P13" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44292</v>
+        <v>44344</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P14" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44386</v>
+        <v>44656</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>13250</v>
+        <v>19000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>883</v>
+        <v>1056</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44313</v>
+        <v>44656</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44313</v>
+        <v>44656</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44302</v>
+        <v>44369</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44302</v>
+        <v>44369</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44670</v>
+        <v>44369</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44670</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44379</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O22" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P22" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44379</v>
+        <v>44295</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44659</v>
+        <v>44376</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44659</v>
+        <v>44376</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44659</v>
+        <v>44383</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
         <v>13000</v>
       </c>
       <c r="O27" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P27" t="n">
-        <v>13000</v>
+        <v>13250</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>722</v>
+        <v>883</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44649</v>
+        <v>44327</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,24 +2600,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44649</v>
+        <v>44327</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44295</v>
+        <v>44351</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44642</v>
+        <v>44351</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,24 +3240,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O36" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="P36" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1056</v>
+        <v>900</v>
       </c>
       <c r="T36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44642</v>
+        <v>44351</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,24 +3320,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44329</v>
+        <v>44309</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
         <v>14000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44329</v>
+        <v>44309</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44348</v>
+        <v>44642</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O40" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P40" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44348</v>
+        <v>44642</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O41" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44348</v>
+        <v>44635</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N42" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P42" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>733</v>
+        <v>1139</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44350</v>
+        <v>44322</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44350</v>
+        <v>44329</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44350</v>
+        <v>44329</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N45" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
         <v>14000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44383</v>
+        <v>44316</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44362</v>
+        <v>44358</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44362</v>
+        <v>44665</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O53" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P53" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44362</v>
+        <v>44665</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44298</v>
+        <v>44665</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44341</v>
+        <v>44334</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
         <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44330</v>
+        <v>44348</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44334</v>
+        <v>44348</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44334</v>
+        <v>44348</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44635</v>
+        <v>44302</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1139</v>
+        <v>967</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44358</v>
+        <v>44302</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="O62" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P62" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1133</v>
+        <v>700</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
         <v>14000</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44358</v>
+        <v>44649</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N64" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O64" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P64" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>733</v>
+        <v>1056</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44316</v>
+        <v>44649</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T65" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44316</v>
+        <v>44362</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44656</v>
+        <v>44362</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,24 +5720,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1056</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44656</v>
+        <v>44362</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44656</v>
+        <v>44320</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6047,13 +6047,13 @@
         <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44372</v>
+        <v>44350</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6127,13 +6127,13 @@
         <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44369</v>
+        <v>44313</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P73" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44369</v>
+        <v>44313</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44365</v>
+        <v>44330</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N76" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44365</v>
+        <v>44330</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44365</v>
+        <v>44321</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44344</v>
+        <v>44321</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>883</v>
+        <v>667</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44344</v>
+        <v>44638</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N80" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P80" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>733</v>
+        <v>1056</v>
       </c>
       <c r="T80" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44351</v>
+        <v>44638</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N81" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1067</v>
+        <v>833</v>
       </c>
       <c r="T81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44351</v>
+        <v>44299</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44351</v>
+        <v>44299</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P83" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,36 +7080,36 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P84" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,36 +7160,36 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O85" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P85" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44376</v>
+        <v>44659</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,24 +7240,24 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="T86" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44376</v>
+        <v>44323</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44376</v>
+        <v>44323</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
         <v>10000</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S88" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44302</v>
+        <v>44719</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N61" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O61" t="n">
         <v>14000</v>
       </c>
-      <c r="O61" t="n">
-        <v>15000</v>
-      </c>
       <c r="P61" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44341</v>
+        <v>44302</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O63" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P63" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44649</v>
+        <v>44341</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>150</v>
       </c>
       <c r="N64" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P64" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1056</v>
+        <v>933</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P65" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44362</v>
+        <v>44649</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N66" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
         <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1067</v>
+        <v>861</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N70" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P70" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O71" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O72" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P72" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44313</v>
+        <v>44350</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O73" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44292</v>
+        <v>44313</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O75" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P75" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44330</v>
+        <v>44292</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N76" t="n">
         <v>14000</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44321</v>
+        <v>44330</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44638</v>
+        <v>44321</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N80" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>250</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44299</v>
+        <v>44638</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
         <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44659</v>
+        <v>44299</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O84" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P84" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O85" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P85" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O86" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P86" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,36 +7320,36 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -7400,35 +7400,115 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>120</v>
+      </c>
+      <c r="N88" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O88" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P88" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Provincia de Cachapoal</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>967</v>
+      </c>
+      <c r="T88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="M89" t="n">
         <v>60</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N89" t="n">
         <v>10000</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O89" t="n">
         <v>10000</v>
       </c>
-      <c r="P88" t="n">
+      <c r="P89" t="n">
         <v>10000</v>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>Provincia de Cachapoal</t>
         </is>
       </c>
-      <c r="S88" t="n">
+      <c r="S89" t="n">
         <v>667</v>
       </c>
-      <c r="T88" t="n">
+      <c r="T89" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44386</v>
+        <v>44720</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2770,14 +2770,14 @@
         <v>13000</v>
       </c>
       <c r="O30" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P30" t="n">
         <v>13500</v>
       </c>
-      <c r="P30" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P31" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44365</v>
+        <v>44298</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O36" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P36" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O37" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P37" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N39" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P39" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44642</v>
+        <v>44309</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O40" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="P40" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1056</v>
+        <v>700</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P41" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44635</v>
+        <v>44642</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N42" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1139</v>
+        <v>833</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44322</v>
+        <v>44635</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O43" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P43" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>967</v>
+        <v>1139</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44329</v>
+        <v>44322</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N44" t="n">
         <v>14000</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44306</v>
+        <v>44329</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P48" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44665</v>
+        <v>44358</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O53" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O54" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P54" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>18</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T55" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44334</v>
+        <v>44665</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44348</v>
+        <v>44334</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44719</v>
+        <v>44348</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44302</v>
+        <v>44719</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,20 +5324,20 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N62" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O62" t="n">
         <v>14000</v>
       </c>
-      <c r="O62" t="n">
-        <v>15000</v>
-      </c>
       <c r="P62" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44341</v>
+        <v>44302</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O64" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P64" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44649</v>
+        <v>44341</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>150</v>
       </c>
       <c r="N65" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P65" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1056</v>
+        <v>933</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P66" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44362</v>
+        <v>44649</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,24 +5720,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N67" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
         <v>16000</v>
       </c>
       <c r="P67" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1067</v>
+        <v>861</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N71" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P71" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O72" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P72" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P73" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44313</v>
+        <v>44350</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P74" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44292</v>
+        <v>44313</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P76" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44330</v>
+        <v>44292</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N77" t="n">
         <v>14000</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44321</v>
+        <v>44330</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N79" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44638</v>
+        <v>44321</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N81" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>250</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P82" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44299</v>
+        <v>44638</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
         <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44659</v>
+        <v>44299</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O85" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P85" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
         <v>18</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,36 +7400,36 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T88" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7480,35 +7480,115 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>120</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O89" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P89" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Provincia de Cachapoal</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
+        <v>967</v>
+      </c>
+      <c r="T89" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="M90" t="n">
         <v>60</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N90" t="n">
         <v>10000</v>
       </c>
-      <c r="O89" t="n">
+      <c r="O90" t="n">
         <v>10000</v>
       </c>
-      <c r="P89" t="n">
+      <c r="P90" t="n">
         <v>10000</v>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>Provincia de Cachapoal</t>
         </is>
       </c>
-      <c r="S89" t="n">
+      <c r="S90" t="n">
         <v>667</v>
       </c>
-      <c r="T89" t="n">
+      <c r="T90" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44313</v>
+        <v>44722</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N75" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O75" t="n">
         <v>14000</v>
       </c>
-      <c r="O75" t="n">
-        <v>15000</v>
-      </c>
       <c r="P75" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44292</v>
+        <v>44313</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P77" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44330</v>
+        <v>44292</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N78" t="n">
         <v>14000</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44321</v>
+        <v>44330</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N80" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44638</v>
+        <v>44321</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O82" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>250</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P83" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44299</v>
+        <v>44638</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O84" t="n">
         <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44659</v>
+        <v>44299</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,24 +7240,24 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O86" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P86" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O87" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P87" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>18</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O88" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P88" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,36 +7480,36 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P89" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T89" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7560,35 +7560,115 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>120</v>
+      </c>
+      <c r="N90" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O90" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P90" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Provincia de Cachapoal</t>
+        </is>
+      </c>
+      <c r="S90" t="n">
+        <v>967</v>
+      </c>
+      <c r="T90" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="M91" t="n">
         <v>60</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N91" t="n">
         <v>10000</v>
       </c>
-      <c r="O90" t="n">
+      <c r="O91" t="n">
         <v>10000</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P91" t="n">
         <v>10000</v>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>Provincia de Cachapoal</t>
         </is>
       </c>
-      <c r="S90" t="n">
+      <c r="S91" t="n">
         <v>667</v>
       </c>
-      <c r="T90" t="n">
+      <c r="T91" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44350</v>
+        <v>44726</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N72" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P72" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O73" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O74" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P74" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44722</v>
+        <v>44350</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,24 +6360,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T75" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44313</v>
+        <v>44722</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N76" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O76" t="n">
         <v>14000</v>
       </c>
-      <c r="O76" t="n">
-        <v>15000</v>
-      </c>
       <c r="P76" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T76" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P77" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44292</v>
+        <v>44313</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P78" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44330</v>
+        <v>44292</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N79" t="n">
         <v>14000</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44321</v>
+        <v>44330</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44638</v>
+        <v>44321</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N83" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>250</v>
       </c>
       <c r="N84" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P84" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44299</v>
+        <v>44638</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7164,20 +7164,20 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O85" t="n">
         <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P86" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44659</v>
+        <v>44299</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,24 +7320,24 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="O87" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P87" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T87" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O88" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P88" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
         <v>18</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O89" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P89" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44323</v>
+        <v>44659</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7560,36 +7560,36 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O90" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T90" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -7640,35 +7640,115 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>120</v>
+      </c>
+      <c r="N91" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O91" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P91" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Provincia de Cachapoal</t>
+        </is>
+      </c>
+      <c r="S91" t="n">
+        <v>967</v>
+      </c>
+      <c r="T91" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="M92" t="n">
         <v>60</v>
       </c>
-      <c r="N91" t="n">
+      <c r="N92" t="n">
         <v>10000</v>
       </c>
-      <c r="O91" t="n">
+      <c r="O92" t="n">
         <v>10000</v>
       </c>
-      <c r="P91" t="n">
+      <c r="P92" t="n">
         <v>10000</v>
       </c>
-      <c r="Q91" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>Provincia de Cachapoal</t>
         </is>
       </c>
-      <c r="S91" t="n">
+      <c r="S92" t="n">
         <v>667</v>
       </c>
-      <c r="T91" t="n">
+      <c r="T92" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44726</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44292</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44372</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44372</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44323</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44372</v>
+        <v>44323</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44372</v>
+        <v>44722</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44372</v>
+        <v>44665</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>889</v>
+        <v>722</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44344</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44344</v>
+        <v>44299</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="O14" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P14" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44656</v>
+        <v>44344</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="P15" t="n">
-        <v>19000</v>
+        <v>13250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1056</v>
+        <v>883</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44656</v>
+        <v>44344</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>733</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44656</v>
+        <v>44322</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
         <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44369</v>
+        <v>44720</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44369</v>
+        <v>44355</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44369</v>
+        <v>44355</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44355</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44638</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>1056</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44295</v>
+        <v>44638</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
         <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44376</v>
+        <v>44351</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
         <v>16000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44376</v>
+        <v>44351</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44376</v>
+        <v>44351</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44383</v>
+        <v>44642</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O27" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P27" t="n">
-        <v>13250</v>
+        <v>19000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>883</v>
+        <v>1056</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44327</v>
+        <v>44642</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
         <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44327</v>
+        <v>44656</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44720</v>
+        <v>44656</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44386</v>
+        <v>44656</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N31" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>13250</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44298</v>
+        <v>44719</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N32" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O32" t="n">
         <v>14000</v>
       </c>
-      <c r="O32" t="n">
-        <v>15000</v>
-      </c>
       <c r="P32" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44365</v>
+        <v>44295</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44365</v>
+        <v>44298</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44365</v>
+        <v>44379</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44351</v>
+        <v>44379</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P36" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44351</v>
+        <v>44379</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44309</v>
+        <v>44348</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44309</v>
+        <v>44348</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3567,13 +3567,13 @@
         <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44642</v>
+        <v>44327</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N41" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P41" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44642</v>
+        <v>44327</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44635</v>
+        <v>44320</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N43" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>20500</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1139</v>
+        <v>933</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44322</v>
+        <v>44386</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44329</v>
+        <v>44659</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44329</v>
+        <v>44659</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44306</v>
+        <v>44659</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,24 +4120,24 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44306</v>
+        <v>44376</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O48" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P48" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44316</v>
+        <v>44376</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N51" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44358</v>
+        <v>44309</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N53" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44665</v>
+        <v>44334</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,24 +4680,24 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44665</v>
+        <v>44334</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44665</v>
+        <v>44362</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>722</v>
+        <v>1067</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44334</v>
+        <v>44362</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44334</v>
+        <v>44362</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44348</v>
+        <v>44302</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O60" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P60" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44348</v>
+        <v>44635</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N61" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O61" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P61" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>733</v>
+        <v>1139</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44719</v>
+        <v>44306</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,20 +5324,20 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P63" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44302</v>
+        <v>44365</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O64" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44649</v>
+        <v>44365</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44649</v>
+        <v>44330</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O67" t="n">
         <v>15000</v>
       </c>
-      <c r="O67" t="n">
-        <v>16000</v>
-      </c>
       <c r="P67" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>861</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44362</v>
+        <v>44330</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>60</v>
       </c>
       <c r="N68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44362</v>
+        <v>44727</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
         <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P69" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44362</v>
+        <v>44670</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,24 +5960,24 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44320</v>
+        <v>44670</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O71" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="T71" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44726</v>
+        <v>44321</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P72" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44350</v>
+        <v>44321</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44350</v>
+        <v>44329</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N74" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44350</v>
+        <v>44329</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44722</v>
+        <v>44316</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T76" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44313</v>
+        <v>44649</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N78" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="O78" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="P78" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>700</v>
+        <v>1056</v>
       </c>
       <c r="T78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6684,20 +6684,20 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N79" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T79" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O80" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P80" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>967</v>
+        <v>1133</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P82" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44321</v>
+        <v>44383</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>13250</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>667</v>
+        <v>883</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44638</v>
+        <v>44313</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44638</v>
+        <v>44313</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O85" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P85" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N86" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O86" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P86" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44299</v>
+        <v>44350</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O87" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P87" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44659</v>
+        <v>44350</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,24 +7400,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O88" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P88" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44659</v>
+        <v>44305</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7487,17 +7487,17 @@
         <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44659</v>
+        <v>44305</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O90" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P90" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44323</v>
+        <v>44369</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N91" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O91" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P91" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44323</v>
+        <v>44369</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,35 +7720,115 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>60</v>
       </c>
       <c r="N92" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O92" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P92" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S92" t="n">
+        <v>867</v>
+      </c>
+      <c r="T92" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44369</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>60</v>
+      </c>
+      <c r="N93" t="n">
         <v>10000</v>
       </c>
-      <c r="O92" t="n">
+      <c r="O93" t="n">
         <v>10000</v>
       </c>
-      <c r="P92" t="n">
+      <c r="P93" t="n">
         <v>10000</v>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>Provincia de Cachapoal</t>
-        </is>
-      </c>
-      <c r="S92" t="n">
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
         <v>667</v>
       </c>
-      <c r="T92" t="n">
+      <c r="T93" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44334</v>
+        <v>44729</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N54" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O54" t="n">
         <v>14000</v>
       </c>
-      <c r="O54" t="n">
-        <v>15000</v>
-      </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44362</v>
+        <v>44334</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44302</v>
+        <v>44362</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O60" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44635</v>
+        <v>44302</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O61" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P61" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1139</v>
+        <v>700</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44306</v>
+        <v>44635</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,20 +5324,20 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P62" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>967</v>
+        <v>1139</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44365</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P64" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44330</v>
+        <v>44365</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44727</v>
+        <v>44330</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44670</v>
+        <v>44727</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P70" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T70" t="n">
         <v>18</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>150</v>
       </c>
       <c r="N71" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P71" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>18</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44321</v>
+        <v>44670</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N72" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O72" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P72" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44329</v>
+        <v>44321</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44649</v>
+        <v>44316</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N79" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O79" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P79" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44358</v>
+        <v>44649</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N80" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1133</v>
+        <v>861</v>
       </c>
       <c r="T80" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>40</v>
       </c>
       <c r="N82" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P82" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O83" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P83" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44313</v>
+        <v>44383</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N84" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P84" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O87" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P87" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O88" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P88" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44305</v>
+        <v>44350</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P90" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44369</v>
+        <v>44305</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O91" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P91" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>60</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O92" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P92" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7800,35 +7800,115 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>60</v>
       </c>
       <c r="N93" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O93" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P93" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
+        <v>867</v>
+      </c>
+      <c r="T93" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44369</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>60</v>
+      </c>
+      <c r="N94" t="n">
         <v>10000</v>
       </c>
-      <c r="O93" t="n">
+      <c r="O94" t="n">
         <v>10000</v>
       </c>
-      <c r="P93" t="n">
+      <c r="P94" t="n">
         <v>10000</v>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S93" t="n">
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
         <v>667</v>
       </c>
-      <c r="T93" t="n">
+      <c r="T94" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44726</v>
+        <v>44649</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44372</v>
+        <v>44659</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44372</v>
+        <v>44659</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44659</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
         <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44722</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
         <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>750</v>
+        <v>867</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44665</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44665</v>
+        <v>44292</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44665</v>
+        <v>44369</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>722</v>
+        <v>1067</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44369</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44299</v>
+        <v>44369</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N14" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44344</v>
+        <v>44365</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>883</v>
+        <v>1067</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44344</v>
+        <v>44365</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P16" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44322</v>
+        <v>44365</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N18" t="n">
         <v>13000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
         <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44355</v>
+        <v>44313</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44638</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="P22" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1056</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44638</v>
+        <v>44665</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
         <v>16000</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1067</v>
+        <v>889</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44351</v>
+        <v>44665</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44351</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44642</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,24 +2520,24 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O27" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="P27" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1056</v>
+        <v>700</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44642</v>
+        <v>44306</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
         <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44656</v>
+        <v>44306</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O29" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="P29" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1056</v>
+        <v>700</v>
       </c>
       <c r="T29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44656</v>
+        <v>44316</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44719</v>
+        <v>44383</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
         <v>13000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P32" t="n">
-        <v>13500</v>
+        <v>13250</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>750</v>
+        <v>883</v>
       </c>
       <c r="T32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44295</v>
+        <v>44376</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P33" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44298</v>
+        <v>44376</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O36" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P36" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44379</v>
+        <v>44358</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44348</v>
+        <v>44729</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
         <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44348</v>
+        <v>44341</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N41" t="n">
         <v>14000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44327</v>
+        <v>44309</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44320</v>
+        <v>44727</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
         <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44386</v>
+        <v>44298</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44659</v>
+        <v>44295</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P45" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44659</v>
+        <v>44334</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44659</v>
+        <v>44334</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44376</v>
+        <v>44670</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P48" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44376</v>
+        <v>44670</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44376</v>
+        <v>44722</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,24 +4360,24 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44341</v>
+        <v>44362</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44729</v>
+        <v>44327</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44334</v>
+        <v>44327</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44334</v>
+        <v>44322</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44362</v>
+        <v>44330</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44362</v>
+        <v>44330</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44362</v>
+        <v>44656</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,24 +5080,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44302</v>
+        <v>44656</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P60" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T60" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44302</v>
+        <v>44656</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N61" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44635</v>
+        <v>44351</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>20500</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1139</v>
+        <v>1067</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P63" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N64" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P64" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44365</v>
+        <v>44379</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
         <v>16000</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44365</v>
+        <v>44379</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
         <v>13000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44365</v>
+        <v>44379</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44330</v>
+        <v>44720</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5807,17 +5807,17 @@
         <v>120</v>
       </c>
       <c r="N68" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O68" t="n">
         <v>14000</v>
       </c>
-      <c r="O68" t="n">
-        <v>15000</v>
-      </c>
       <c r="P68" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44330</v>
+        <v>44350</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>60</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44727</v>
+        <v>44350</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,20 +5964,20 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O70" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P70" t="n">
         <v>13500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44670</v>
+        <v>44350</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T71" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44670</v>
+        <v>44299</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P72" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O73" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P73" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44321</v>
+        <v>44372</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44329</v>
+        <v>44372</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44329</v>
+        <v>44372</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N76" t="n">
         <v>10000</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6607,13 +6607,13 @@
         <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44649</v>
+        <v>44635</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N79" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O79" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P79" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1056</v>
+        <v>1139</v>
       </c>
       <c r="T79" t="n">
         <v>18</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44649</v>
+        <v>44638</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O80" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P80" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44358</v>
+        <v>44638</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,24 +6840,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N81" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="T81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44358</v>
+        <v>44642</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O82" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P82" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>933</v>
+        <v>1056</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44358</v>
+        <v>44642</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N83" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44383</v>
+        <v>44726</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7084,20 +7084,20 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N84" t="n">
         <v>13000</v>
       </c>
       <c r="O84" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P84" t="n">
         <v>13500</v>
       </c>
-      <c r="P84" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
         <v>14000</v>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S85" t="n">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N86" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44350</v>
+        <v>44321</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N87" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44350</v>
+        <v>44321</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O89" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P89" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44305</v>
+        <v>44348</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O90" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P90" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>967</v>
+        <v>900</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44305</v>
+        <v>44348</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7647,13 +7647,13 @@
         <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O91" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P91" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N92" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O92" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P92" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1067</v>
+        <v>883</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44369</v>
+        <v>44344</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
         <v>13000</v>
       </c>
       <c r="O93" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P93" t="n">
-        <v>13000</v>
+        <v>13250</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44369</v>
+        <v>44344</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7887,13 +7887,13 @@
         <v>60</v>
       </c>
       <c r="N94" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P94" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44299</v>
+        <v>44736</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6127,17 +6127,17 @@
         <v>200</v>
       </c>
       <c r="N72" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O72" t="n">
         <v>14000</v>
       </c>
-      <c r="O72" t="n">
-        <v>15000</v>
-      </c>
       <c r="P72" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P73" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44372</v>
+        <v>44299</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O74" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P74" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>60</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O75" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>60</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44302</v>
+        <v>44372</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44635</v>
+        <v>44302</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O79" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P79" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1139</v>
+        <v>700</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44638</v>
+        <v>44635</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N80" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O80" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P80" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1056</v>
+        <v>1139</v>
       </c>
       <c r="T80" t="n">
         <v>18</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>250</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N82" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1056</v>
+        <v>833</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>300</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P83" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44726</v>
+        <v>44642</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7087,13 +7087,13 @@
         <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O84" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44323</v>
+        <v>44726</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7164,32 +7164,32 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N85" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O85" t="n">
         <v>14000</v>
       </c>
-      <c r="O85" t="n">
-        <v>15000</v>
-      </c>
       <c r="P85" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44348</v>
+        <v>44321</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O90" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P90" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O91" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P91" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44386</v>
+        <v>44348</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O92" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P92" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44344</v>
+        <v>44386</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N93" t="n">
         <v>13000</v>
@@ -7880,35 +7880,115 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>200</v>
+      </c>
+      <c r="N94" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O94" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P94" t="n">
+        <v>13250</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
+        <v>883</v>
+      </c>
+      <c r="T94" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="M95" t="n">
         <v>60</v>
       </c>
-      <c r="N94" t="n">
+      <c r="N95" t="n">
         <v>11000</v>
       </c>
-      <c r="O94" t="n">
+      <c r="O95" t="n">
         <v>11000</v>
       </c>
-      <c r="P94" t="n">
+      <c r="P95" t="n">
         <v>11000</v>
       </c>
-      <c r="Q94" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S94" t="n">
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S95" t="n">
         <v>733</v>
       </c>
-      <c r="T94" t="n">
+      <c r="T95" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44729</v>
+        <v>44740</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44341</v>
+        <v>44729</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O40" t="n">
         <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44309</v>
+        <v>44341</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N41" t="n">
         <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N42" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O42" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44727</v>
+        <v>44309</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P43" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44298</v>
+        <v>44727</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O44" t="n">
         <v>14000</v>
       </c>
-      <c r="O44" t="n">
-        <v>15000</v>
-      </c>
       <c r="P44" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44295</v>
+        <v>44298</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44334</v>
+        <v>44295</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N46" t="n">
         <v>14000</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44670</v>
+        <v>44334</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,24 +4200,24 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N48" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>150</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>18</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44722</v>
+        <v>44670</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N50" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="T50" t="n">
         <v>18</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44362</v>
+        <v>44722</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,24 +4440,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44327</v>
+        <v>44362</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44330</v>
+        <v>44322</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N57" t="n">
         <v>14000</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44656</v>
+        <v>44330</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,24 +5080,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>150</v>
       </c>
       <c r="N60" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O60" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P60" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>889</v>
+        <v>1056</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>150</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T61" t="n">
         <v>18</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44351</v>
+        <v>44656</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1067</v>
+        <v>833</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O63" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O64" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P64" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44379</v>
+        <v>44351</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N65" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O65" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O66" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P66" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44720</v>
+        <v>44379</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44350</v>
+        <v>44720</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,24 +5880,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P69" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O70" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P70" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44736</v>
+        <v>44350</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,24 +6120,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O72" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P72" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44299</v>
+        <v>44736</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6207,17 +6207,17 @@
         <v>200</v>
       </c>
       <c r="N73" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O73" t="n">
         <v>14000</v>
       </c>
-      <c r="O73" t="n">
-        <v>15000</v>
-      </c>
       <c r="P73" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44372</v>
+        <v>44299</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P75" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>60</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44302</v>
+        <v>44372</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44635</v>
+        <v>44302</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O80" t="n">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="P80" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1139</v>
+        <v>700</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44638</v>
+        <v>44635</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N81" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O81" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P81" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1056</v>
+        <v>1139</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>250</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P82" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T82" t="n">
         <v>18</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44642</v>
+        <v>44638</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N83" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1056</v>
+        <v>833</v>
       </c>
       <c r="T83" t="n">
         <v>18</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P84" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T84" t="n">
         <v>18</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44726</v>
+        <v>44642</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7167,13 +7167,13 @@
         <v>300</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44323</v>
+        <v>44726</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7244,32 +7244,32 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N86" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O86" t="n">
         <v>14000</v>
       </c>
-      <c r="O86" t="n">
-        <v>15000</v>
-      </c>
       <c r="P86" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T86" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44348</v>
+        <v>44321</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O91" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P91" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O92" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P92" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44386</v>
+        <v>44348</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P93" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44344</v>
+        <v>44386</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N94" t="n">
         <v>13000</v>
@@ -7960,35 +7960,115 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>200</v>
+      </c>
+      <c r="N95" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O95" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P95" t="n">
+        <v>13250</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S95" t="n">
+        <v>883</v>
+      </c>
+      <c r="T95" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="M96" t="n">
         <v>60</v>
       </c>
-      <c r="N95" t="n">
+      <c r="N96" t="n">
         <v>11000</v>
       </c>
-      <c r="O95" t="n">
+      <c r="O96" t="n">
         <v>11000</v>
       </c>
-      <c r="P95" t="n">
+      <c r="P96" t="n">
         <v>11000</v>
       </c>
-      <c r="Q95" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S95" t="n">
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S96" t="n">
         <v>733</v>
       </c>
-      <c r="T95" t="n">
+      <c r="T96" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44649</v>
+        <v>44722</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O2" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44649</v>
+        <v>44736</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>861</v>
+        <v>750</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44659</v>
+        <v>44330</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44659</v>
+        <v>44330</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44659</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>722</v>
+        <v>967</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
         <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44321</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44292</v>
+        <v>44321</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44369</v>
+        <v>44638</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44369</v>
+        <v>44638</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44369</v>
+        <v>44729</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O16" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P16" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>867</v>
+        <v>700</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44365</v>
+        <v>44350</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44719</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P18" t="n">
         <v>13500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44329</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P19" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44329</v>
+        <v>44295</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44313</v>
+        <v>44351</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44313</v>
+        <v>44351</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O22" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44665</v>
+        <v>44351</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44665</v>
+        <v>44383</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>13250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44665</v>
+        <v>44379</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>722</v>
+        <v>1067</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44379</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P26" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>967</v>
+        <v>867</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44379</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2527,13 +2527,13 @@
         <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2847,13 +2847,13 @@
         <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44383</v>
+        <v>44740</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N32" t="n">
         <v>13000</v>
       </c>
       <c r="O32" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P32" t="n">
         <v>13500</v>
       </c>
-      <c r="P32" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44376</v>
+        <v>44649</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O33" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P33" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44376</v>
+        <v>44649</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44376</v>
+        <v>44635</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3160,24 +3160,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>1139</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44358</v>
+        <v>44313</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1133</v>
+        <v>967</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44358</v>
+        <v>44313</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44740</v>
+        <v>44642</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O39" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44729</v>
+        <v>44642</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3567,13 +3567,13 @@
         <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44341</v>
+        <v>44386</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N41" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P41" t="n">
-        <v>14000</v>
+        <v>13250</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44309</v>
+        <v>44670</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N42" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P42" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44309</v>
+        <v>44670</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O43" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P43" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N44" t="n">
         <v>13000</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44295</v>
+        <v>44329</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44334</v>
+        <v>44372</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44334</v>
+        <v>44372</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>60</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44670</v>
+        <v>44372</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,24 +4280,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44670</v>
+        <v>44348</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
         <v>16000</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>889</v>
+        <v>1067</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44722</v>
+        <v>44348</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P51" t="n">
         <v>13500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T51" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44362</v>
+        <v>44348</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44362</v>
+        <v>44720</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N53" t="n">
         <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44362</v>
+        <v>44292</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44327</v>
+        <v>44298</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N55" t="n">
         <v>14000</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
         <v>14000</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44656</v>
+        <v>44665</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O60" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P60" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>18</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44656</v>
+        <v>44665</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
         <v>16000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44656</v>
+        <v>44665</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="T62" t="n">
         <v>18</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5487,13 +5487,13 @@
         <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44351</v>
+        <v>44365</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44379</v>
+        <v>44334</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N66" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O66" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44379</v>
+        <v>44334</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44379</v>
+        <v>44727</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44720</v>
+        <v>44322</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44350</v>
+        <v>44719</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,24 +5960,24 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N70" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P70" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44350</v>
+        <v>44323</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N71" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44350</v>
+        <v>44323</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6127,13 +6127,13 @@
         <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44736</v>
+        <v>44358</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,24 +6200,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O73" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P73" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>750</v>
+        <v>1133</v>
       </c>
       <c r="T73" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N74" t="n">
         <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P74" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44302</v>
+        <v>44656</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N79" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P79" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="T79" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44302</v>
+        <v>44656</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N80" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O80" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T80" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44635</v>
+        <v>44656</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N81" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1139</v>
+        <v>833</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44638</v>
+        <v>44355</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44638</v>
+        <v>44355</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44642</v>
+        <v>44355</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N84" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O84" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P84" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1056</v>
+        <v>733</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44642</v>
+        <v>44362</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,24 +7160,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N85" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O85" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P85" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44726</v>
+        <v>44362</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7244,20 +7244,20 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N86" t="n">
         <v>13000</v>
       </c>
       <c r="O86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P86" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>750</v>
+        <v>867</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44321</v>
+        <v>44344</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P89" t="n">
-        <v>14500</v>
+        <v>13250</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>967</v>
+        <v>883</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44321</v>
+        <v>44344</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7567,13 +7567,13 @@
         <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P90" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44348</v>
+        <v>44659</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O91" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P91" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T91" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44348</v>
+        <v>44659</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O92" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P92" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T92" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44348</v>
+        <v>44659</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,20 +7804,20 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="T93" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44386</v>
+        <v>44376</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O94" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P94" t="n">
-        <v>13250</v>
+        <v>16000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>883</v>
+        <v>1067</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44344</v>
+        <v>44376</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
         <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P95" t="n">
-        <v>13250</v>
+        <v>13000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44344</v>
+        <v>44376</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44722</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44736</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44330</v>
+        <v>44659</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44330</v>
+        <v>44659</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44659</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44656</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44309</v>
+        <v>44656</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>967</v>
+        <v>889</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44309</v>
+        <v>44656</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>700</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44321</v>
+        <v>44729</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O10" t="n">
         <v>14000</v>
       </c>
-      <c r="O10" t="n">
-        <v>15000</v>
-      </c>
       <c r="P10" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44321</v>
+        <v>44670</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44638</v>
+        <v>44670</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1056</v>
+        <v>889</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44638</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
         <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>833</v>
+        <v>967</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44729</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O18" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P18" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1887,13 +1887,13 @@
         <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44351</v>
+        <v>44299</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44351</v>
+        <v>44299</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O22" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P22" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44351</v>
+        <v>44322</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>733</v>
+        <v>967</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44383</v>
+        <v>44727</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
         <v>13000</v>
       </c>
       <c r="O24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P24" t="n">
         <v>13500</v>
       </c>
-      <c r="P24" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44379</v>
+        <v>44740</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,24 +2360,24 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44379</v>
+        <v>44309</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O26" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44379</v>
+        <v>44309</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2527,13 +2527,13 @@
         <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44719</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O28" t="n">
         <v>14000</v>
       </c>
-      <c r="O28" t="n">
-        <v>15000</v>
-      </c>
       <c r="P28" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>44642</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,24 +2680,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N29" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="P29" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>700</v>
+        <v>1056</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44306</v>
+        <v>44642</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
         <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44306</v>
+        <v>44720</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O31" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44740</v>
+        <v>44722</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44649</v>
+        <v>44320</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N33" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1056</v>
+        <v>933</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44649</v>
+        <v>44386</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P34" t="n">
-        <v>15500</v>
+        <v>13250</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44635</v>
+        <v>44323</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O35" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1139</v>
+        <v>967</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44313</v>
+        <v>44350</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O37" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P37" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44341</v>
+        <v>44350</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44642</v>
+        <v>44350</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O39" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1056</v>
+        <v>733</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44642</v>
+        <v>44635</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>833</v>
+        <v>1139</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
         <v>18000</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44670</v>
+        <v>44665</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
         <v>16000</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44726</v>
+        <v>44665</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
         <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P44" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44329</v>
+        <v>44302</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44329</v>
+        <v>44302</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44372</v>
+        <v>44329</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44372</v>
+        <v>44306</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44348</v>
+        <v>44306</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44348</v>
+        <v>44376</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44348</v>
+        <v>44376</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44720</v>
+        <v>44376</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,24 +4600,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P53" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44292</v>
+        <v>44334</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
         <v>14000</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44298</v>
+        <v>44334</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44302</v>
+        <v>44351</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P58" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>967</v>
+        <v>733</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44302</v>
+        <v>44344</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P59" t="n">
-        <v>10500</v>
+        <v>13250</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>700</v>
+        <v>883</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,24 +5160,24 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O60" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T60" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N61" t="n">
         <v>16000</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>889</v>
+        <v>1067</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,11 +5320,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
         <v>13000</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44365</v>
+        <v>44736</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,20 +5484,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N64" t="n">
         <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44365</v>
+        <v>44638</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T65" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44334</v>
+        <v>44638</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N66" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
         <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44727</v>
+        <v>44313</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O68" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P68" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
         <v>14000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44719</v>
+        <v>44327</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,24 +5960,24 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44323</v>
+        <v>44379</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P71" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>967</v>
+        <v>1067</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44323</v>
+        <v>44379</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44358</v>
+        <v>44379</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44358</v>
+        <v>44649</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O74" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P74" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>933</v>
+        <v>1056</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44358</v>
+        <v>44649</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,24 +6360,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>733</v>
+        <v>861</v>
       </c>
       <c r="T75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N76" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44369</v>
+        <v>44348</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44369</v>
+        <v>44348</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44656</v>
+        <v>44348</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,24 +6680,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1056</v>
+        <v>733</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44656</v>
+        <v>44341</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6767,17 +6767,17 @@
         <v>150</v>
       </c>
       <c r="N80" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O80" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P80" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="T80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44656</v>
+        <v>44726</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>833</v>
+        <v>750</v>
       </c>
       <c r="T81" t="n">
         <v>18</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6927,13 +6927,13 @@
         <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P82" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N84" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44362</v>
+        <v>44298</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N85" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>60</v>
       </c>
       <c r="N86" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O86" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P86" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44344</v>
+        <v>44321</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N89" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>13250</v>
+        <v>14500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>883</v>
+        <v>967</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44344</v>
+        <v>44321</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7567,13 +7567,13 @@
         <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44659</v>
+        <v>44355</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N91" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O91" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7669,7 +7669,7 @@
         <v>1000</v>
       </c>
       <c r="T91" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44659</v>
+        <v>44355</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N92" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O92" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P92" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,10 +7746,10 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T92" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44659</v>
+        <v>44355</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,20 +7804,20 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N93" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P93" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="T93" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7887,13 +7887,13 @@
         <v>100</v>
       </c>
       <c r="N94" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O94" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P94" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1067</v>
+        <v>1133</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N95" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O95" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P95" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44376</v>
+        <v>44358</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44323</v>
+        <v>44771</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,32 +3164,32 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N35" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O35" t="n">
         <v>14000</v>
       </c>
-      <c r="O35" t="n">
-        <v>15000</v>
-      </c>
       <c r="P35" t="n">
-        <v>14500</v>
+        <v>13750</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>967</v>
+        <v>764</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44350</v>
+        <v>44323</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O38" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P38" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O39" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P39" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44635</v>
+        <v>44350</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,24 +3560,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O40" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P40" t="n">
-        <v>20500</v>
+        <v>11000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1139</v>
+        <v>733</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44383</v>
+        <v>44635</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O41" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P41" t="n">
-        <v>13250</v>
+        <v>20500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>883</v>
+        <v>1139</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44665</v>
+        <v>44383</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,24 +3720,24 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P42" t="n">
-        <v>18000</v>
+        <v>13250</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>883</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O43" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P43" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44302</v>
+        <v>44665</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,24 +3960,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44329</v>
+        <v>44302</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O47" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P47" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44306</v>
+        <v>44329</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N50" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44351</v>
+        <v>44334</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O57" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P57" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O58" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P58" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O59" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>13250</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>883</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>60</v>
       </c>
       <c r="N61" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O61" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44736</v>
+        <v>44365</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44638</v>
+        <v>44736</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P65" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T65" t="n">
         <v>18</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>250</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44313</v>
+        <v>44638</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
         <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O68" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O69" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N71" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44649</v>
+        <v>44379</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N75" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O75" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P75" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T75" t="n">
         <v>18</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P76" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T76" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44348</v>
+        <v>44292</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N77" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P77" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O78" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P78" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P79" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O80" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P80" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44726</v>
+        <v>44341</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N81" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
         <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T81" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44369</v>
+        <v>44726</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,24 +6920,24 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P82" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>60</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>60</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44298</v>
+        <v>44369</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O85" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P85" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44362</v>
+        <v>44298</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44321</v>
+        <v>44362</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N90" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P90" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44355</v>
+        <v>44321</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>60</v>
       </c>
       <c r="N91" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>60</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N94" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O94" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P94" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1133</v>
+        <v>733</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O95" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P95" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8040,35 +8040,115 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>40</v>
       </c>
       <c r="N96" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O96" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P96" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S96" t="n">
+        <v>933</v>
+      </c>
+      <c r="T96" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>40</v>
+      </c>
+      <c r="N97" t="n">
         <v>11000</v>
       </c>
-      <c r="O96" t="n">
+      <c r="O97" t="n">
         <v>11000</v>
       </c>
-      <c r="P96" t="n">
+      <c r="P97" t="n">
         <v>11000</v>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S96" t="n">
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S97" t="n">
         <v>733</v>
       </c>
-      <c r="T96" t="n">
+      <c r="T97" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44386</v>
+        <v>44775</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N34" t="n">
         <v>13000</v>
       </c>
       <c r="O34" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P34" t="n">
         <v>13500</v>
       </c>
-      <c r="P34" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44771</v>
+        <v>44386</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O35" t="n">
         <v>13500</v>
       </c>
-      <c r="O35" t="n">
-        <v>14000</v>
-      </c>
       <c r="P35" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>764</v>
+        <v>883</v>
       </c>
       <c r="T35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44323</v>
+        <v>44771</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N36" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O36" t="n">
         <v>14000</v>
       </c>
-      <c r="O36" t="n">
-        <v>15000</v>
-      </c>
       <c r="P36" t="n">
-        <v>14500</v>
+        <v>13750</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>967</v>
+        <v>764</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44350</v>
+        <v>44323</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>60</v>
       </c>
       <c r="N38" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O39" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P39" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O40" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P40" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44635</v>
+        <v>44350</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3640,24 +3640,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O41" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P41" t="n">
-        <v>20500</v>
+        <v>11000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1139</v>
+        <v>733</v>
       </c>
       <c r="T41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44383</v>
+        <v>44635</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O42" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P42" t="n">
-        <v>13250</v>
+        <v>20500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>883</v>
+        <v>1139</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44665</v>
+        <v>44383</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P43" t="n">
-        <v>18000</v>
+        <v>13250</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>883</v>
       </c>
       <c r="T43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P44" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44302</v>
+        <v>44665</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,24 +4040,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P46" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>967</v>
+        <v>722</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P47" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44329</v>
+        <v>44302</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P48" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44306</v>
+        <v>44329</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O52" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P52" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O53" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P53" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P56" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44351</v>
+        <v>44334</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O58" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P58" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O59" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P59" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O60" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>883</v>
+        <v>733</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P61" t="n">
-        <v>11000</v>
+        <v>13250</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>733</v>
+        <v>883</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O62" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P62" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44736</v>
+        <v>44365</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44638</v>
+        <v>44736</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P66" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T66" t="n">
         <v>18</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>250</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44313</v>
+        <v>44638</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,20 +5804,20 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N68" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
         <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P70" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N72" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O73" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44649</v>
+        <v>44379</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,24 +6360,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P76" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T76" t="n">
         <v>18</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,20 +6524,20 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P77" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T77" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44348</v>
+        <v>44292</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N78" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O78" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O79" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P79" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O80" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P80" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44726</v>
+        <v>44341</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O82" t="n">
         <v>14000</v>
       </c>
       <c r="P82" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44369</v>
+        <v>44726</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,24 +7000,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N83" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>60</v>
       </c>
       <c r="N84" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>60</v>
       </c>
       <c r="N85" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44298</v>
+        <v>44369</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N86" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44362</v>
+        <v>44298</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N87" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O88" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P88" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44321</v>
+        <v>44362</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44355</v>
+        <v>44321</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>60</v>
       </c>
       <c r="N92" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>60</v>
       </c>
       <c r="N93" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O93" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P93" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N94" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O94" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P94" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N95" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O95" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P95" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1133</v>
+        <v>733</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O96" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P96" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8120,35 +8120,115 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>40</v>
       </c>
       <c r="N97" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O97" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P97" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S97" t="n">
+        <v>933</v>
+      </c>
+      <c r="T97" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>40</v>
+      </c>
+      <c r="N98" t="n">
         <v>11000</v>
       </c>
-      <c r="O97" t="n">
+      <c r="O98" t="n">
         <v>11000</v>
       </c>
-      <c r="P97" t="n">
+      <c r="P98" t="n">
         <v>11000</v>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S97" t="n">
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S98" t="n">
         <v>733</v>
       </c>
-      <c r="T97" t="n">
+      <c r="T98" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44344</v>
+        <v>44777</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N61" t="n">
         <v>13000</v>
       </c>
       <c r="O61" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P61" t="n">
         <v>13500</v>
       </c>
-      <c r="P61" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P62" t="n">
-        <v>11000</v>
+        <v>13250</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>733</v>
+        <v>883</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>60</v>
       </c>
       <c r="N63" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O63" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44736</v>
+        <v>44365</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,24 +5640,24 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44638</v>
+        <v>44736</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P67" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T67" t="n">
         <v>18</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>250</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P68" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T68" t="n">
         <v>18</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44313</v>
+        <v>44638</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
         <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,10 +5906,10 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>967</v>
+        <v>833</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P71" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44379</v>
+        <v>44327</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44649</v>
+        <v>44379</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N77" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P77" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>861</v>
+        <v>1056</v>
       </c>
       <c r="T77" t="n">
         <v>18</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44292</v>
+        <v>44649</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,20 +6604,20 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N78" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P78" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="T78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44348</v>
+        <v>44292</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N79" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O80" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P81" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O82" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P82" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44726</v>
+        <v>44341</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
         <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44369</v>
+        <v>44726</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P84" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>60</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>60</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44298</v>
+        <v>44369</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44362</v>
+        <v>44298</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N88" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O88" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P88" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1067</v>
+        <v>967</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O89" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P89" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44321</v>
+        <v>44362</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N91" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44355</v>
+        <v>44321</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>60</v>
       </c>
       <c r="N93" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O93" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>60</v>
       </c>
       <c r="N94" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P94" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P95" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O96" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P96" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1133</v>
+        <v>733</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O97" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P97" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8200,35 +8200,115 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>40</v>
       </c>
       <c r="N98" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O98" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P98" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S98" t="n">
+        <v>933</v>
+      </c>
+      <c r="T98" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>100104003</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Membrillo</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Champion</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>40</v>
+      </c>
+      <c r="N99" t="n">
         <v>11000</v>
       </c>
-      <c r="O98" t="n">
+      <c r="O99" t="n">
         <v>11000</v>
       </c>
-      <c r="P98" t="n">
+      <c r="P99" t="n">
         <v>11000</v>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S98" t="n">
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S99" t="n">
         <v>733</v>
       </c>
-      <c r="T98" t="n">
+      <c r="T99" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Membrillo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44306</v>
+        <v>44778</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4447,17 +4447,17 @@
         <v>200</v>
       </c>
       <c r="N51" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O51" t="n">
         <v>14000</v>
       </c>
-      <c r="O51" t="n">
-        <v>15000</v>
-      </c>
       <c r="P51" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="T51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44376</v>
+        <v>44306</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O53" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="P53" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1067</v>
+        <v>700</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O54" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P54" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P57" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>667</v>
+        <v>967</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44351</v>
+        <v>44334</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>60</v>
       </c>
       <c r="N59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P59" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>900</v>
+        <v>1067</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>900</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44777</v>
+        <v>44351</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,24 +5240,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O61" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44344</v>
+        <v>44777</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,20 +5324,20 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N62" t="n">
         <v>13000</v>
       </c>
       <c r="O62" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P62" t="n">
         <v>13500</v>
       </c>
-      <c r="P62" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>883</v>
+        <v>750</v>
       </c>
       <c r="T62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>13250</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>733</v>
+        <v>883</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O64" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P64" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>60</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +